--- a/store/leoka/mn_leoka.xlsx
+++ b/store/leoka/mn_leoka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Downloads/20240200-burnsville/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/leoka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AE142-892A-E94C-8388-1C0243391002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B010442-FDF4-944B-973B-11B0CA7BDC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="3720" windowWidth="25340" windowHeight="15760" activeTab="1" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
+    <workbookView xWindow="1420" yWindow="3720" windowWidth="25340" windowHeight="15760" activeTab="2" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
   </bookViews>
   <sheets>
     <sheet name="mnleoka" sheetId="1" r:id="rId1"/>
@@ -2504,7 +2504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7863E06-4EFB-6049-96E9-A8C23CFB717A}">
   <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465589F-04C0-4647-A3F2-9A2532B7818F}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>2019</v>
@@ -3565,13 +3565,13 @@
         <v>2024</v>
       </c>
       <c r="B56">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="C56" s="35">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/store/leoka/mn_leoka.xlsx
+++ b/store/leoka/mn_leoka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/leoka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A2265-5E89-9B49-804E-C7F9F3C98FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE7644-4361-FE47-8ED7-32BF69403533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="3720" windowWidth="25340" windowHeight="15760" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
+    <workbookView xWindow="1020" yWindow="1640" windowWidth="37120" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,16 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">rates!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">rates!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">rates!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">rates!$F$2:$F$21</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">rates!$A$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">rates!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">rates!$F$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">rates!$F$2:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -494,19 +504,10 @@
     <t>incidents</t>
   </si>
   <si>
-    <t>mn arrests</t>
-  </si>
-  <si>
-    <t>mn ag assaults</t>
-  </si>
-  <si>
     <t>total_leoka</t>
   </si>
   <si>
     <t>leoka_as</t>
-  </si>
-  <si>
-    <t>leoka_gun</t>
   </si>
   <si>
     <t>leoka_accident</t>
@@ -519,6 +520,15 @@
   </si>
   <si>
     <t>leoka_assault</t>
+  </si>
+  <si>
+    <t>Minnesota Arrests</t>
+  </si>
+  <si>
+    <t>Minnesota Aggravated Assaults</t>
+  </si>
+  <si>
+    <t>LEOKA: Firearm Assaults</t>
   </si>
 </sst>
 </file>
@@ -969,6 +979,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -984,7 +995,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1058,11 +1068,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:f>[1]Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mn arrests</c:v>
+                  <c:v>total_leoka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1150,69 +1160,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$21</c:f>
+              <c:f>[1]Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>209127</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210955</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224287</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213350</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>209080</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197890</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>186378</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178469</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>171232</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160797</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152470</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150330</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>144379</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>150036</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>168322</c:v>
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150034</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>119426</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>111478</c:v>
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>112581</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103903</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,7 +1230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A3B5-154A-B27F-EA11F87CED25}"/>
+              <c16:uniqueId val="{00000000-06ED-E843-AA7E-B27D4766F81F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1233,11 +1243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1080752576"/>
-        <c:axId val="1080438480"/>
+        <c:axId val="2082544655"/>
+        <c:axId val="2040798719"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1080752576"/>
+        <c:axId val="2082544655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080438480"/>
+        <c:crossAx val="2040798719"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,392 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1080438480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1080752576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>leoka_as</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>339</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60EB-154D-B492-E251789B00B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2036067151"/>
-        <c:axId val="2035759935"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2036067151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2035759935"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2035759935"/>
+        <c:axId val="2040798719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036067151"/>
+        <c:crossAx val="2082544655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,783 +1398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>leoka_gun</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFC1-7C43-8924-4BA6ED0560ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2036906015"/>
-        <c:axId val="2041060271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2036906015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2041060271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2041060271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2036906015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>leoka_slain</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$2:$H$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA1C-624F-A94A-32060B2F12D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1350317808"/>
-        <c:axId val="2081870271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1350317808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2081870271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2081870271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350317808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2942,776 +1791,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mn ag assaults</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7396</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8772</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8176</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7618</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7231</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7071</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6445</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6814</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6823</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6684</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6981</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7026</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7115</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6687</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6742</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8203</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10901</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10369</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-300B-1142-B5BA-8E4196A68A99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2036446079"/>
-        <c:axId val="2028671215"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2036446079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2028671215"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2028671215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2036446079"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total_leoka</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>859</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>938</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06ED-E843-AA7E-B27D4766F81F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2082544655"/>
-        <c:axId val="2040798719"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2082544655"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2040798719"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2040798719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2082544655"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>[1]Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4042,6 +2121,782 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leoka_slain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84FC-C54E-AA4A-1B4208901D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1350317808"/>
+        <c:axId val="2081870271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1350317808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081870271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2081870271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350317808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_leoka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA4B-244E-AECE-326A0C0ADFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2082544655"/>
+        <c:axId val="2040798719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2082544655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040798719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2040798719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2082544655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4097,11 +2952,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$F$1</c:f>
+              <c:f>[1]Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>leoka_gun</c:v>
+                  <c:v>leoka_as</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4189,69 +3044,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$21</c:f>
+              <c:f>[1]Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,7 +3114,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8860-F646-8765-B01B02A303B3}"/>
+              <c16:uniqueId val="{00000000-60EB-154D-B492-E251789B00B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4272,11 +3127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2036906015"/>
-        <c:axId val="2041060271"/>
+        <c:axId val="2036067151"/>
+        <c:axId val="2035759935"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2036906015"/>
+        <c:axId val="2036067151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,7 +3174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041060271"/>
+        <c:crossAx val="2035759935"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4327,7 +3182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2041060271"/>
+        <c:axId val="2035759935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,7 +3233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036906015"/>
+        <c:crossAx val="2036067151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4650,7 +3505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84FC-C54E-AA4A-1B4208901D31}"/>
+              <c16:uniqueId val="{00000000-EA1C-624F-A94A-32060B2F12D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4873,11 +3728,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:f>rates!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mn arrests</c:v>
+                  <c:v>Minnesota Arrests</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4896,7 +3751,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
+              <c:f>rates!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4965,7 +3820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$21</c:f>
+              <c:f>rates!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5035,7 +3890,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49F5-364A-B9E4-2B421C87A772}"/>
+              <c16:uniqueId val="{00000000-8AA0-F542-BBFE-0B0340B8E9FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5048,11 +3903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1080752576"/>
-        <c:axId val="1080438480"/>
+        <c:axId val="543459440"/>
+        <c:axId val="543461152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1080752576"/>
+        <c:axId val="543459440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,7 +3950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080438480"/>
+        <c:crossAx val="543461152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5103,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1080438480"/>
+        <c:axId val="543461152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +4009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1080752576"/>
+        <c:crossAx val="543459440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5258,11 +4113,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:f>rates!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mn ag assaults</c:v>
+                  <c:v>Minnesota Aggravated Assaults</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5281,7 +4136,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
+              <c:f>rates!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5350,7 +4205,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$C$2:$C$21</c:f>
+              <c:f>rates!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5420,7 +4275,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C063-B54D-BB86-889761AE5135}"/>
+              <c16:uniqueId val="{00000000-6D08-EB4C-8A27-2BC9CECAEC90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5433,11 +4288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2036446079"/>
-        <c:axId val="2028671215"/>
+        <c:axId val="2082170527"/>
+        <c:axId val="2082149679"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2036446079"/>
+        <c:axId val="2082170527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5480,7 +4335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028671215"/>
+        <c:crossAx val="2082149679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5488,7 +4343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028671215"/>
+        <c:axId val="2082149679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,7 +4394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036446079"/>
+        <c:crossAx val="2082170527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5643,11 +4498,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$D$1</c:f>
+              <c:f>rates!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total_leoka</c:v>
+                  <c:v>LEOKA: Firearm Assaults</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5666,7 +4521,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$A$2:$A$21</c:f>
+              <c:f>rates!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5735,69 +4590,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$21</c:f>
+              <c:f>rates!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>170</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>208</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>349</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>401</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>346</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>357</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>321</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>296</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>371</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>416</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>413</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>667</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>859</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>938</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5805,7 +4660,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA4B-244E-AECE-326A0C0ADFCD}"/>
+              <c16:uniqueId val="{00000000-E204-E545-B3A1-1C8C52E57DC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5818,11 +4673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2082544655"/>
-        <c:axId val="2040798719"/>
+        <c:axId val="315829616"/>
+        <c:axId val="315831328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082544655"/>
+        <c:axId val="315829616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,7 +4720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040798719"/>
+        <c:crossAx val="315831328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5873,7 +4728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2040798719"/>
+        <c:axId val="315831328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5924,7 +4779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082544655"/>
+        <c:crossAx val="315829616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6014,126 +4869,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7525,7 +6260,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8041,7 +6776,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8557,7 +7292,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9073,7 +7808,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9589,7 +8324,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10105,7 +8840,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10621,7 +9356,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11137,7 +9872,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11653,1632 +10388,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8455B431-B97A-4443-8107-CD88CB04065E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E2E89A-783B-B342-9D21-FB077D752CBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -13311,7 +10422,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13349,45 +10460,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC264FE7-6F55-1247-A594-009E69311607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13425,83 +10498,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B572BD-798A-ED4B-BF4B-2DA53C0738A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1482E182-9599-D74D-92A1-40B4EC99E482}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13539,7 +10536,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13577,45 +10574,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB587FFE-0F17-2D4F-86AA-803716913B45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13653,7 +10612,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D02861-C992-879F-1C4C-1EE75BDFB0BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8380A7ED-40FB-92B3-54F0-D2E5C8656540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262C28F3-03C2-96CD-B820-DE448CB027E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14508,7 +11575,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14517,6 +11584,7 @@
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -14524,31 +11592,31 @@
         <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -14576,11 +11644,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="37">
         <f>D2/B2</f>
         <v>8.1290316410602165E-4</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="37">
         <f>E2/C2</f>
         <v>2.2985397512168739E-3</v>
       </c>
@@ -14610,11 +11678,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="37">
         <f t="shared" ref="I3:J21" si="0">D3/B3</f>
         <v>1.090279917517954E-3</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="37">
         <f t="shared" si="0"/>
         <v>5.208964264082374E-3</v>
       </c>
@@ -14644,11 +11712,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="37">
         <f t="shared" si="0"/>
         <v>7.6687458479537376E-4</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="37">
         <f t="shared" si="0"/>
         <v>3.875968992248062E-3</v>
       </c>
@@ -14678,11 +11746,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="37">
         <f t="shared" si="0"/>
         <v>5.3902038903210685E-4</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="37">
         <f t="shared" si="0"/>
         <v>2.0792563600782778E-3</v>
       </c>
@@ -14712,11 +11780,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="37">
         <f t="shared" si="0"/>
         <v>1.2483259996173713E-3</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="37">
         <f t="shared" si="0"/>
         <v>2.3628248884221582E-3</v>
       </c>
@@ -14746,11 +11814,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="37">
         <f t="shared" si="0"/>
         <v>1.4553539845368639E-3</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="37">
         <f t="shared" si="0"/>
         <v>5.2551514313372979E-3</v>
       </c>
@@ -14780,11 +11848,11 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="37">
         <f t="shared" si="0"/>
         <v>1.1160115464271534E-3</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="37">
         <f t="shared" si="0"/>
         <v>2.8284542497525101E-3</v>
       </c>
@@ -14814,11 +11882,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="37">
         <f t="shared" si="0"/>
         <v>1.9555216872398007E-3</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="37">
         <f t="shared" si="0"/>
         <v>1.7067494181536073E-2</v>
       </c>
@@ -14848,11 +11916,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="37">
         <f t="shared" si="0"/>
         <v>2.3418519902821903E-3</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="37">
         <f t="shared" si="0"/>
         <v>1.408864103316701E-2</v>
       </c>
@@ -14882,11 +11950,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="37">
         <f t="shared" si="0"/>
         <v>2.1517814387084335E-3</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="37">
         <f t="shared" si="0"/>
         <v>1.1725047633006009E-2</v>
       </c>
@@ -14916,11 +11984,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="37">
         <f t="shared" si="0"/>
         <v>2.3414442185347938E-3</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="37">
         <f t="shared" si="0"/>
         <v>1.8402154398563735E-2</v>
       </c>
@@ -14950,11 +12018,11 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="37">
         <f t="shared" si="0"/>
         <v>2.1353023348633007E-3</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="37">
         <f t="shared" si="0"/>
         <v>1.633003867640739E-2</v>
       </c>
@@ -14984,11 +12052,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="37">
         <f t="shared" si="0"/>
         <v>2.0501596492564708E-3</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="37">
         <f t="shared" si="0"/>
         <v>1.1670936521491603E-2</v>
       </c>
@@ -15018,11 +12086,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="37">
         <f t="shared" si="0"/>
         <v>2.4727398757631502E-3</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="37">
         <f t="shared" si="0"/>
         <v>1.7006324666198173E-2</v>
       </c>
@@ -15052,11 +12120,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="37">
         <f t="shared" si="0"/>
         <v>2.4714535236035695E-3</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="37">
         <f t="shared" si="0"/>
         <v>1.4655301330940632E-2</v>
       </c>
@@ -15086,11 +12154,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="37">
         <f t="shared" si="0"/>
         <v>2.7527093858725356E-3</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="37">
         <f t="shared" si="0"/>
         <v>1.7205576980124593E-2</v>
       </c>
@@ -15120,11 +12188,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="37">
         <f t="shared" si="0"/>
         <v>5.5850484819051126E-3</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="37">
         <f t="shared" si="0"/>
         <v>2.438132390588809E-2</v>
       </c>
@@ -15154,11 +12222,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="37">
         <f t="shared" si="0"/>
         <v>8.0733418252928821E-3</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="37">
         <f t="shared" si="0"/>
         <v>2.9997247958902854E-2</v>
       </c>
@@ -15188,11 +12256,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="37">
         <f t="shared" si="0"/>
         <v>7.6300619109796498E-3</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="37">
         <f t="shared" si="0"/>
         <v>3.2307840678946861E-2</v>
       </c>
@@ -15222,11 +12290,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="37">
         <f t="shared" si="0"/>
         <v>9.0276507896788344E-3</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="37">
         <f t="shared" si="0"/>
         <v>3.3940728874649578E-2</v>
       </c>
@@ -16931,52 +13999,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="Q3" t="s">
         <v>16</v>
       </c>

--- a/store/leoka/mn_leoka.xlsx
+++ b/store/leoka/mn_leoka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/leoka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE7644-4361-FE47-8ED7-32BF69403533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA938A-886E-7743-A078-4ECB6699904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1640" windowWidth="37120" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
+    <workbookView xWindow="620" yWindow="5200" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="8" r:id="rId1"/>
@@ -24,16 +24,6 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">rates!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">rates!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">rates!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">rates!$F$2:$F$21</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">rates!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">rates!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">rates!$F$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">rates!$F$2:$F$21</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -879,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -994,6 +984,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3881,8 +3874,8 @@
                 <c:pt idx="18">
                   <c:v>112581</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>103903</c:v>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>114538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10785,17 +10778,11 @@
           <cell r="B1" t="str">
             <v>mn arrests</v>
           </cell>
-          <cell r="C1" t="str">
-            <v>mn ag assaults</v>
-          </cell>
           <cell r="D1" t="str">
             <v>total_leoka</v>
           </cell>
           <cell r="E1" t="str">
             <v>leoka_as</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>leoka_gun</v>
           </cell>
           <cell r="H1" t="str">
             <v>leoka_slain</v>
@@ -10805,20 +10792,11 @@
           <cell r="A2">
             <v>2004</v>
           </cell>
-          <cell r="B2">
-            <v>209127</v>
-          </cell>
-          <cell r="C2">
-            <v>7396</v>
-          </cell>
           <cell r="D2">
             <v>170</v>
           </cell>
           <cell r="E2">
             <v>17</v>
-          </cell>
-          <cell r="F2">
-            <v>2</v>
           </cell>
           <cell r="H2">
             <v>0</v>
@@ -10828,20 +10806,11 @@
           <cell r="A3">
             <v>2005</v>
           </cell>
-          <cell r="B3">
-            <v>210955</v>
-          </cell>
-          <cell r="C3">
-            <v>8255</v>
-          </cell>
           <cell r="D3">
             <v>230</v>
           </cell>
           <cell r="E3">
             <v>43</v>
-          </cell>
-          <cell r="F3">
-            <v>5</v>
           </cell>
           <cell r="H3">
             <v>2</v>
@@ -10851,20 +10820,11 @@
           <cell r="A4">
             <v>2006</v>
           </cell>
-          <cell r="B4">
-            <v>224287</v>
-          </cell>
-          <cell r="C4">
-            <v>8772</v>
-          </cell>
           <cell r="D4">
             <v>172</v>
           </cell>
           <cell r="E4">
             <v>34</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
           </cell>
           <cell r="H4">
             <v>0</v>
@@ -10874,20 +10834,11 @@
           <cell r="A5">
             <v>2007</v>
           </cell>
-          <cell r="B5">
-            <v>213350</v>
-          </cell>
-          <cell r="C5">
-            <v>8176</v>
-          </cell>
           <cell r="D5">
             <v>115</v>
           </cell>
           <cell r="E5">
             <v>17</v>
-          </cell>
-          <cell r="F5">
-            <v>3</v>
           </cell>
           <cell r="H5">
             <v>0</v>
@@ -10897,20 +10848,11 @@
           <cell r="A6">
             <v>2008</v>
           </cell>
-          <cell r="B6">
-            <v>209080</v>
-          </cell>
-          <cell r="C6">
-            <v>7618</v>
-          </cell>
           <cell r="D6">
             <v>261</v>
           </cell>
           <cell r="E6">
             <v>18</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
           </cell>
           <cell r="H6">
             <v>0</v>
@@ -10920,20 +10862,11 @@
           <cell r="A7">
             <v>2009</v>
           </cell>
-          <cell r="B7">
-            <v>197890</v>
-          </cell>
-          <cell r="C7">
-            <v>7231</v>
-          </cell>
           <cell r="D7">
             <v>288</v>
           </cell>
           <cell r="E7">
             <v>38</v>
-          </cell>
-          <cell r="F7">
-            <v>4</v>
           </cell>
           <cell r="H7">
             <v>1</v>
@@ -10943,20 +10876,11 @@
           <cell r="A8">
             <v>2010</v>
           </cell>
-          <cell r="B8">
-            <v>186378</v>
-          </cell>
-          <cell r="C8">
-            <v>7071</v>
-          </cell>
           <cell r="D8">
             <v>208</v>
           </cell>
           <cell r="E8">
             <v>20</v>
-          </cell>
-          <cell r="F8">
-            <v>4</v>
           </cell>
           <cell r="H8">
             <v>2</v>
@@ -10966,20 +10890,11 @@
           <cell r="A9">
             <v>2011</v>
           </cell>
-          <cell r="B9">
-            <v>178469</v>
-          </cell>
-          <cell r="C9">
-            <v>6445</v>
-          </cell>
           <cell r="D9">
             <v>349</v>
           </cell>
           <cell r="E9">
             <v>110</v>
-          </cell>
-          <cell r="F9">
-            <v>15</v>
           </cell>
           <cell r="H9">
             <v>1</v>
@@ -10989,20 +10904,11 @@
           <cell r="A10">
             <v>2012</v>
           </cell>
-          <cell r="B10">
-            <v>171232</v>
-          </cell>
-          <cell r="C10">
-            <v>6814</v>
-          </cell>
           <cell r="D10">
             <v>401</v>
           </cell>
           <cell r="E10">
             <v>96</v>
-          </cell>
-          <cell r="F10">
-            <v>15</v>
           </cell>
           <cell r="H10">
             <v>1</v>
@@ -11012,20 +10918,11 @@
           <cell r="A11">
             <v>2013</v>
           </cell>
-          <cell r="B11">
-            <v>160797</v>
-          </cell>
-          <cell r="C11">
-            <v>6823</v>
-          </cell>
           <cell r="D11">
             <v>346</v>
           </cell>
           <cell r="E11">
             <v>80</v>
-          </cell>
-          <cell r="F11">
-            <v>8</v>
           </cell>
           <cell r="H11">
             <v>0</v>
@@ -11035,20 +10932,11 @@
           <cell r="A12">
             <v>2014</v>
           </cell>
-          <cell r="B12">
-            <v>152470</v>
-          </cell>
-          <cell r="C12">
-            <v>6684</v>
-          </cell>
           <cell r="D12">
             <v>357</v>
           </cell>
           <cell r="E12">
             <v>123</v>
-          </cell>
-          <cell r="F12">
-            <v>20</v>
           </cell>
           <cell r="H12">
             <v>1</v>
@@ -11058,20 +10946,11 @@
           <cell r="A13">
             <v>2015</v>
           </cell>
-          <cell r="B13">
-            <v>150330</v>
-          </cell>
-          <cell r="C13">
-            <v>6981</v>
-          </cell>
           <cell r="D13">
             <v>321</v>
           </cell>
           <cell r="E13">
             <v>114</v>
-          </cell>
-          <cell r="F13">
-            <v>17</v>
           </cell>
           <cell r="H13">
             <v>1</v>
@@ -11081,20 +10960,11 @@
           <cell r="A14">
             <v>2016</v>
           </cell>
-          <cell r="B14">
-            <v>144379</v>
-          </cell>
-          <cell r="C14">
-            <v>7026</v>
-          </cell>
           <cell r="D14">
             <v>296</v>
           </cell>
           <cell r="E14">
             <v>82</v>
-          </cell>
-          <cell r="F14">
-            <v>14</v>
           </cell>
           <cell r="H14">
             <v>0</v>
@@ -11104,20 +10974,11 @@
           <cell r="A15">
             <v>2017</v>
           </cell>
-          <cell r="B15">
-            <v>150036</v>
-          </cell>
-          <cell r="C15">
-            <v>7115</v>
-          </cell>
           <cell r="D15">
             <v>371</v>
           </cell>
           <cell r="E15">
             <v>121</v>
-          </cell>
-          <cell r="F15">
-            <v>16</v>
           </cell>
           <cell r="H15">
             <v>0</v>
@@ -11127,20 +10988,11 @@
           <cell r="A16">
             <v>2018</v>
           </cell>
-          <cell r="B16">
-            <v>168322</v>
-          </cell>
-          <cell r="C16">
-            <v>6687</v>
-          </cell>
           <cell r="D16">
             <v>416</v>
           </cell>
           <cell r="E16">
             <v>98</v>
-          </cell>
-          <cell r="F16">
-            <v>3</v>
           </cell>
           <cell r="H16">
             <v>0</v>
@@ -11150,20 +11002,11 @@
           <cell r="A17">
             <v>2019</v>
           </cell>
-          <cell r="B17">
-            <v>150034</v>
-          </cell>
-          <cell r="C17">
-            <v>6742</v>
-          </cell>
           <cell r="D17">
             <v>413</v>
           </cell>
           <cell r="E17">
             <v>116</v>
-          </cell>
-          <cell r="F17">
-            <v>10</v>
           </cell>
           <cell r="H17">
             <v>0</v>
@@ -11173,20 +11016,11 @@
           <cell r="A18">
             <v>2020</v>
           </cell>
-          <cell r="B18">
-            <v>119426</v>
-          </cell>
-          <cell r="C18">
-            <v>8203</v>
-          </cell>
           <cell r="D18">
             <v>667</v>
           </cell>
           <cell r="E18">
             <v>200</v>
-          </cell>
-          <cell r="F18">
-            <v>38</v>
           </cell>
           <cell r="H18">
             <v>0</v>
@@ -11196,20 +11030,11 @@
           <cell r="A19">
             <v>2021</v>
           </cell>
-          <cell r="B19">
-            <v>111478</v>
-          </cell>
-          <cell r="C19">
-            <v>10901</v>
-          </cell>
           <cell r="D19">
             <v>900</v>
           </cell>
           <cell r="E19">
             <v>327</v>
-          </cell>
-          <cell r="F19">
-            <v>44</v>
           </cell>
           <cell r="H19">
             <v>1</v>
@@ -11219,20 +11044,11 @@
           <cell r="A20">
             <v>2022</v>
           </cell>
-          <cell r="B20">
-            <v>112581</v>
-          </cell>
-          <cell r="C20">
-            <v>10369</v>
-          </cell>
           <cell r="D20">
             <v>859</v>
           </cell>
           <cell r="E20">
             <v>335</v>
-          </cell>
-          <cell r="F20">
-            <v>50</v>
           </cell>
           <cell r="H20">
             <v>0</v>
@@ -11242,20 +11058,11 @@
           <cell r="A21">
             <v>2023</v>
           </cell>
-          <cell r="B21">
-            <v>103903</v>
-          </cell>
-          <cell r="C21">
-            <v>9988</v>
-          </cell>
           <cell r="D21">
             <v>938</v>
           </cell>
           <cell r="E21">
             <v>339</v>
-          </cell>
-          <cell r="F21">
-            <v>65</v>
           </cell>
           <cell r="H21">
             <v>1</v>
@@ -11575,7 +11382,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12269,17 +12076,17 @@
       <c r="A21" s="1">
         <v>2023</v>
       </c>
-      <c r="B21" s="36">
-        <v>103903</v>
+      <c r="B21" s="43">
+        <v>114538</v>
       </c>
       <c r="C21" s="29">
         <v>9988</v>
       </c>
       <c r="D21">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="E21" s="35">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="F21" s="35">
         <v>65</v>
@@ -12292,11 +12099,11 @@
       </c>
       <c r="I21" s="37">
         <f t="shared" si="0"/>
-        <v>9.0276507896788344E-3</v>
+        <v>8.3902285704307734E-3</v>
       </c>
       <c r="J21" s="37">
         <f t="shared" si="0"/>
-        <v>3.3940728874649578E-2</v>
+        <v>3.1237484981978373E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/store/leoka/mn_leoka.xlsx
+++ b/store/leoka/mn_leoka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/leoka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA938A-886E-7743-A078-4ECB6699904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6A40AE-18F4-8D40-9889-06392C375D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="5200" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
+    <workbookView xWindow="620" yWindow="1140" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="8" r:id="rId1"/>
@@ -970,6 +970,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -984,9 +987,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4129,10 +4129,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>rates!$A$2:$A$21</c:f>
+              <c:f>rates!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4192,16 +4192,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rates!$C$2:$C$21</c:f>
+              <c:f>rates!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>7396</c:v>
                 </c:pt>
@@ -4261,6 +4264,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,10 +4520,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>rates!$A$2:$A$21</c:f>
+              <c:f>rates!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4577,16 +4583,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rates!$F$2:$F$21</c:f>
+              <c:f>rates!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -4646,6 +4655,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11382,13 +11394,16 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" customWidth="1"/>
@@ -11486,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="37">
-        <f t="shared" ref="I3:J21" si="0">D3/B3</f>
+        <f t="shared" ref="I3:J22" si="0">D3/B3</f>
         <v>1.090279917517954E-3</v>
       </c>
       <c r="J3" s="37">
@@ -12076,7 +12091,7 @@
       <c r="A21" s="1">
         <v>2023</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="38">
         <v>114538</v>
       </c>
       <c r="C21" s="29">
@@ -12110,14 +12125,31 @@
       <c r="A22" s="1">
         <v>2024</v>
       </c>
+      <c r="C22" s="29">
+        <v>9812</v>
+      </c>
       <c r="D22">
-        <v>298</v>
+        <v>978</v>
+      </c>
+      <c r="E22" s="35">
+        <v>370</v>
+      </c>
+      <c r="F22" s="35">
+        <v>108</v>
       </c>
       <c r="G22" s="35">
         <v>0</v>
       </c>
       <c r="H22">
         <v>3</v>
+      </c>
+      <c r="I22" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="37">
+        <f t="shared" si="0"/>
+        <v>3.7708927843456988E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12609,7 +12641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5465589F-04C0-4647-A3F2-9A2532B7818F}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -13806,52 +13838,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="Q3" t="s">
         <v>16</v>
       </c>

--- a/store/leoka/mn_leoka.xlsx
+++ b/store/leoka/mn_leoka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/leoka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6A40AE-18F4-8D40-9889-06392C375D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7854BA2-D3AB-BB44-8DBC-2392F256A4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1140" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
+    <workbookView xWindow="140" yWindow="1980" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="8" r:id="rId1"/>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,13 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3815,7 +3809,7 @@
             <c:numRef>
               <c:f>rates!$B$2:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>209127</c:v>
@@ -3853,13 +3847,13 @@
                 <c:pt idx="11">
                   <c:v>150330</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>144379</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>150036</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>168322</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -3868,13 +3862,13 @@
                 <c:pt idx="16">
                   <c:v>119426</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>111478</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>112581</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="0">
+                <c:pt idx="19">
                   <c:v>114538</c:v>
                 </c:pt>
               </c:numCache>
@@ -3971,7 +3965,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11391,10 +11385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE0E1A6-1865-DC49-96D9-DD10C56A6C50}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11445,7 +11439,7 @@
       <c r="A2" s="1">
         <v>2004</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="35">
         <v>209127</v>
       </c>
       <c r="C2" s="29">
@@ -11466,11 +11460,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="36">
         <f>D2/B2</f>
         <v>8.1290316410602165E-4</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="36">
         <f>E2/C2</f>
         <v>2.2985397512168739E-3</v>
       </c>
@@ -11479,7 +11473,7 @@
       <c r="A3" s="1">
         <v>2005</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="35">
         <v>210955</v>
       </c>
       <c r="C3" s="29">
@@ -11500,11 +11494,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="37">
-        <f t="shared" ref="I3:J22" si="0">D3/B3</f>
+      <c r="I3" s="36">
+        <f t="shared" ref="I3:J23" si="0">D3/B3</f>
         <v>1.090279917517954E-3</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="36">
         <f t="shared" si="0"/>
         <v>5.208964264082374E-3</v>
       </c>
@@ -11513,7 +11507,7 @@
       <c r="A4" s="1">
         <v>2006</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="35">
         <v>224287</v>
       </c>
       <c r="C4" s="29">
@@ -11534,11 +11528,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f t="shared" si="0"/>
         <v>7.6687458479537376E-4</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <f t="shared" si="0"/>
         <v>3.875968992248062E-3</v>
       </c>
@@ -11547,7 +11541,7 @@
       <c r="A5" s="1">
         <v>2007</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="35">
         <v>213350</v>
       </c>
       <c r="C5" s="29">
@@ -11568,11 +11562,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <f t="shared" si="0"/>
         <v>5.3902038903210685E-4</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <f t="shared" si="0"/>
         <v>2.0792563600782778E-3</v>
       </c>
@@ -11581,7 +11575,7 @@
       <c r="A6" s="1">
         <v>2008</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="35">
         <v>209080</v>
       </c>
       <c r="C6" s="29">
@@ -11602,11 +11596,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <f t="shared" si="0"/>
         <v>1.2483259996173713E-3</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <f t="shared" si="0"/>
         <v>2.3628248884221582E-3</v>
       </c>
@@ -11615,7 +11609,7 @@
       <c r="A7" s="1">
         <v>2009</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="35">
         <v>197890</v>
       </c>
       <c r="C7" s="29">
@@ -11636,11 +11630,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <f t="shared" si="0"/>
         <v>1.4553539845368639E-3</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <f t="shared" si="0"/>
         <v>5.2551514313372979E-3</v>
       </c>
@@ -11649,7 +11643,7 @@
       <c r="A8" s="1">
         <v>2010</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="35">
         <v>186378</v>
       </c>
       <c r="C8" s="29">
@@ -11670,11 +11664,11 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f t="shared" si="0"/>
         <v>1.1160115464271534E-3</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <f t="shared" si="0"/>
         <v>2.8284542497525101E-3</v>
       </c>
@@ -11683,7 +11677,7 @@
       <c r="A9" s="1">
         <v>2011</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="35">
         <v>178469</v>
       </c>
       <c r="C9" s="29">
@@ -11704,11 +11698,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <f t="shared" si="0"/>
         <v>1.9555216872398007E-3</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <f t="shared" si="0"/>
         <v>1.7067494181536073E-2</v>
       </c>
@@ -11717,7 +11711,7 @@
       <c r="A10" s="1">
         <v>2012</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="35">
         <v>171232</v>
       </c>
       <c r="C10" s="29">
@@ -11738,11 +11732,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <f t="shared" si="0"/>
         <v>2.3418519902821903E-3</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <f t="shared" si="0"/>
         <v>1.408864103316701E-2</v>
       </c>
@@ -11751,7 +11745,7 @@
       <c r="A11" s="1">
         <v>2013</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="35">
         <v>160797</v>
       </c>
       <c r="C11" s="29">
@@ -11772,11 +11766,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
         <v>2.1517814387084335E-3</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
         <v>1.1725047633006009E-2</v>
       </c>
@@ -11785,7 +11779,7 @@
       <c r="A12" s="1">
         <v>2014</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="35">
         <v>152470</v>
       </c>
       <c r="C12" s="29">
@@ -11806,11 +11800,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <f t="shared" si="0"/>
         <v>2.3414442185347938E-3</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <f t="shared" si="0"/>
         <v>1.8402154398563735E-2</v>
       </c>
@@ -11819,7 +11813,7 @@
       <c r="A13" s="1">
         <v>2015</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="35">
         <v>150330</v>
       </c>
       <c r="C13" s="29">
@@ -11840,11 +11834,11 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <f t="shared" si="0"/>
         <v>2.1353023348633007E-3</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <f t="shared" si="0"/>
         <v>1.633003867640739E-2</v>
       </c>
@@ -11874,11 +11868,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <f t="shared" si="0"/>
         <v>2.0501596492564708E-3</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <f t="shared" si="0"/>
         <v>1.1670936521491603E-2</v>
       </c>
@@ -11908,11 +11902,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <f t="shared" si="0"/>
         <v>2.4727398757631502E-3</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <f t="shared" si="0"/>
         <v>1.7006324666198173E-2</v>
       </c>
@@ -11942,11 +11936,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <f t="shared" si="0"/>
         <v>2.4714535236035695E-3</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <f t="shared" si="0"/>
         <v>1.4655301330940632E-2</v>
       </c>
@@ -11955,7 +11949,7 @@
       <c r="A17" s="1">
         <v>2019</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>150034</v>
       </c>
       <c r="C17" s="29">
@@ -11976,11 +11970,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <f t="shared" si="0"/>
         <v>2.7527093858725356E-3</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <f t="shared" si="0"/>
         <v>1.7205576980124593E-2</v>
       </c>
@@ -11989,7 +11983,7 @@
       <c r="A18" s="1">
         <v>2020</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>119426</v>
       </c>
       <c r="C18" s="29">
@@ -12010,11 +12004,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <f t="shared" si="0"/>
         <v>5.5850484819051126E-3</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <f t="shared" si="0"/>
         <v>2.438132390588809E-2</v>
       </c>
@@ -12044,11 +12038,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <f t="shared" si="0"/>
         <v>8.0733418252928821E-3</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <f t="shared" si="0"/>
         <v>2.9997247958902854E-2</v>
       </c>
@@ -12057,7 +12051,7 @@
       <c r="A20" s="1">
         <v>2022</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>112581</v>
       </c>
       <c r="C20" s="29">
@@ -12078,11 +12072,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <f t="shared" si="0"/>
         <v>7.6300619109796498E-3</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <f t="shared" si="0"/>
         <v>3.2307840678946861E-2</v>
       </c>
@@ -12091,7 +12085,7 @@
       <c r="A21" s="1">
         <v>2023</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="35">
         <v>114538</v>
       </c>
       <c r="C21" s="29">
@@ -12112,11 +12106,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <f t="shared" si="0"/>
         <v>8.3902285704307734E-3</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <f t="shared" si="0"/>
         <v>3.1237484981978373E-2</v>
       </c>
@@ -12125,14 +12119,17 @@
       <c r="A22" s="1">
         <v>2024</v>
       </c>
+      <c r="B22" s="35">
+        <v>113829</v>
+      </c>
       <c r="C22" s="29">
         <v>9812</v>
       </c>
       <c r="D22">
-        <v>978</v>
+        <v>991</v>
       </c>
       <c r="E22" s="35">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F22" s="35">
         <v>108</v>
@@ -12143,13 +12140,19 @@
       <c r="H22">
         <v>3</v>
       </c>
-      <c r="I22" s="37" t="e">
+      <c r="I22" s="36">
         <f t="shared" si="0"/>
+        <v>8.7060415184179781E-3</v>
+      </c>
+      <c r="J22" s="36">
+        <f t="shared" si="0"/>
+        <v>3.9543416225030575E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I23" s="36" t="e">
+        <f>D22/B23</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="37">
-        <f t="shared" si="0"/>
-        <v>3.7708927843456988E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13838,52 +13841,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="Q3" t="s">
         <v>16</v>
       </c>

--- a/store/leoka/mn_leoka.xlsx
+++ b/store/leoka/mn_leoka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20240428-crimedash/store/leoka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7854BA2-D3AB-BB44-8DBC-2392F256A4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1126C0-D2A0-7C4D-A132-B7531D487977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1980" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
+    <workbookView xWindow="140" yWindow="1100" windowWidth="34560" windowHeight="18860" xr2:uid="{62CD1033-DB78-904C-8ED6-651B1D4B2D67}"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="8" r:id="rId1"/>
@@ -11388,7 +11388,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11495,7 +11495,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="36">
-        <f t="shared" ref="I3:J23" si="0">D3/B3</f>
+        <f t="shared" ref="I3:J22" si="0">D3/B3</f>
         <v>1.090279917517954E-3</v>
       </c>
       <c r="J3" s="36">
